--- a/K/DATA/C_DATA 2020-09-25 20.xlsx
+++ b/K/DATA/C_DATA 2020-09-25 20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1,809</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://scontent-ssn1-1.cdninstagram.com/v/t51.2885-15/sh0.08/e35/s640x640/82810863_673860700018184_3207408353252392057_n.jpg?_nc_ht=scontent-ssn1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=T0o-DdsZ-nIAX8uxiJt&amp;oh=8c64c9e6c2a7d946a38d7c9d614e0cba&amp;oe=5F975947</t>
+          <t>https://scontent-ssn1-1.cdninstagram.com/v/t51.2885-15/sh0.08/e35/s640x640/82810863_673860700018184_3207408353252392057_n.jpg?_nc_ht=scontent-ssn1-1.cdninstagram.com&amp;_nc_cat=108&amp;_nc_ohc=T0o-DdsZ-nIAX_R7FlA&amp;oh=a675f421f8df3fa7582fa32c90f4f78a&amp;oe=5F975947</t>
         </is>
       </c>
     </row>
